--- a/java-example-jxls/src/main/resources/jxls/user-group.xlsx
+++ b/java-example-jxls/src/main/resources/jxls/user-group.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conanli-repository\java-example\java-example-jxls\src\main\resources\jxls\"/>
@@ -22,7 +22,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ZhiDian</author>
-    <author>Letorn</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -33,6 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jxls:</t>
@@ -42,10 +42,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="D4")</t>
+jx:area(lastCell="E4")</t>
         </r>
       </text>
     </comment>
@@ -57,23 +58,27 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jxls:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhiDian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(var="user" items="users" lastCell="D3")</t>
+jx:each(var="user" items="users" lastCell="E3")
+jx:each(var="role" items="user.roles" lastCell="C3")
+jx:params(_idx="1")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,23 +86,25 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jxls:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhiDian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:merge(row="user.roles.size()" lastCell="D3")</t>
+jx:merge(rows="2" lastCell="D3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,10 +112,21 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jxls:
-jx:each(var="role" items="user.roles" lastCell="D3")</t>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhiDian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:merge(rows="user.roles.size()" lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -117,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +149,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${user.id}</t>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${role.code}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,11 +165,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编码</t>
+    <t>${user.password}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,7 +177,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${role.code}</t>
+    <t>${idx=(idx|0)+1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,12 +196,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -183,23 +211,61 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -208,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +282,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -535,63 +607,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java-example-jxls/src/main/resources/jxls/user-group.xlsx
+++ b/java-example-jxls/src/main/resources/jxls/user-group.xlsx
@@ -73,8 +73,7 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(var="user" items="users" lastCell="E3")
-jx:each(var="role" items="user.roles" lastCell="C3")
-jx:params(_idx="1")</t>
+jx:each(var="role" items="user.roles" lastCell="C3")</t>
         </r>
       </text>
     </comment>
@@ -100,7 +99,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:merge(rows="2" lastCell="D3")</t>
+jx:merge(rows="user.roles.size()" lastCell="D3")</t>
         </r>
       </text>
     </comment>
@@ -610,7 +609,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
